--- a/LongestCommonSubsequenceCalculatorTables.xlsx
+++ b/LongestCommonSubsequenceCalculatorTables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aven\source\repos\Chapter2\Modul9(DinamicProgramming)\`Practice\Antiplagiarism.csproj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aven\source\repos\Chapter2\Modul9(DinamicProgramming)\`Practice\Antiplagiarism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB383F8-404F-4AEB-A554-26E8FAD0A041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D51FA65-D2FE-4AF1-9A47-D37719B52409}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4CE2D70C-14A3-41D2-8E9A-09947FC3303A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="7">
   <si>
     <t>a</t>
   </si>
@@ -89,7 +89,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,6 +111,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -142,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -162,6 +168,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -476,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280D83DA-713B-4695-8324-73A794B39D77}">
-  <dimension ref="B3:P9"/>
+  <dimension ref="B3:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -702,6 +714,189 @@
         <v>5</v>
       </c>
     </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
+        <v>2</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C19" s="1">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="10">
+        <v>3</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C20" s="1">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3</v>
+      </c>
+      <c r="H20" s="10">
+        <v>4</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
